--- a/File3.xlsx
+++ b/File3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Mini-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8948161-50B5-4B05-8A4B-FA924B4FBCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8A328-1A75-42AD-B344-6DAC9073642D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>BG</t>
   </si>
@@ -67,91 +67,28 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Averis</t>
-  </si>
-  <si>
-    <t>Averis Sdn</t>
-  </si>
-  <si>
-    <t>Penetration Testing</t>
-  </si>
-  <si>
-    <t>PJR202421</t>
-  </si>
-  <si>
-    <t>SOWVAV123</t>
-  </si>
-  <si>
-    <t>8/27/2024 7:45</t>
-  </si>
-  <si>
-    <t>Cyber Security</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>AHP</t>
-  </si>
-  <si>
-    <t>Forindo Sdn BHd</t>
-  </si>
-  <si>
-    <t>ioawhgoi3h</t>
-  </si>
-  <si>
-    <t>PJR202418</t>
-  </si>
-  <si>
-    <t>SOW123456</t>
-  </si>
-  <si>
-    <t>7/24/2024 2:54</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>BSC Prod H</t>
-  </si>
-  <si>
-    <t>PJR20243G</t>
-  </si>
-  <si>
-    <t>SOWVAV2</t>
-  </si>
-  <si>
-    <t>Allan Teoh Joo Chwan</t>
-  </si>
-  <si>
-    <t>2/15/2024 8:17</t>
-  </si>
-  <si>
-    <t>Projects-IT Infra</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>VMWare V</t>
-  </si>
-  <si>
-    <t>PJR202413</t>
-  </si>
-  <si>
-    <t>Iswani Mustafa</t>
-  </si>
-  <si>
-    <t>5/31/2024 3:44</t>
-  </si>
-  <si>
-    <t>Jacky</t>
-  </si>
-  <si>
-    <t>Christina</t>
+    <t>Tanato Foundation</t>
+  </si>
+  <si>
+    <t>Tanato Foundation Jarkarta</t>
+  </si>
+  <si>
+    <t>PJR20241728</t>
+  </si>
+  <si>
+    <t>Create Sub Domain</t>
+  </si>
+  <si>
+    <t>Fiona</t>
+  </si>
+  <si>
+    <t>7/16/2024 3:52</t>
+  </si>
+  <si>
+    <t>PMO</t>
   </si>
 </sst>
 </file>
@@ -491,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,31 +485,28 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
         <v>22</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -583,149 +517,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3">
-        <v>0.01</v>
-      </c>
-      <c r="L3">
-        <v>0.01</v>
-      </c>
-      <c r="M3">
-        <v>0.01</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>29</v>
-      </c>
-      <c r="N4">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>852147</v>
-      </c>
-      <c r="M5">
-        <v>67</v>
-      </c>
-      <c r="N5">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
